--- a/SHArC/SHArea/VanillaC4_sharea_chsp.xlsx
+++ b/SHArC/SHArea/VanillaC4_sharea_chsp.xlsx
@@ -1292,7 +1292,7 @@
         <v>3.920214705773166</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>5.588131313131313</v>
+        <v>22635</v>
       </c>
       <c r="G4" s="15">
         <f>IF(NOT(ISBLANK(F4)),E4/100*F4, "")</f>
@@ -1317,7 +1317,7 @@
         <v>4.349242883600829</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>5.230899908172635</v>
+        <v>21210</v>
       </c>
       <c r="G5" s="15">
         <f>IF(NOT(ISBLANK(F5)),(E5-E4)/100*F5,"")</f>
@@ -1342,7 +1342,7 @@
         <v>4.718032061091793</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>4.990266299357208</v>
+        <v>20220</v>
       </c>
       <c r="G6" s="15">
         <f>IF(NOT(ISBLANK(F6)),(E6-E5)/100*F6,"")</f>
@@ -1367,7 +1367,7 @@
         <v>5.238612317630025</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>4.598737373737373</v>
+        <v>18643</v>
       </c>
       <c r="G7" s="15">
         <f>IF(NOT(ISBLANK(F7)),(E7-E6)/100*F7,"")</f>
@@ -1392,7 +1392,7 @@
         <v>5.715448529421875</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>4.054247015610652</v>
+        <v>16438</v>
       </c>
       <c r="G8" s="15">
         <f>IF(NOT(ISBLANK(F8)),(E8-E7)/100*F8,"")</f>
@@ -1417,7 +1417,7 @@
         <v>6.474036125444968</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>3.546143250688705</v>
+        <v>14448</v>
       </c>
       <c r="G9" s="15">
         <f>IF(NOT(ISBLANK(F9)),(E9-E8)/100*F9,"")</f>
@@ -1442,7 +1442,7 @@
         <v>7.445026048433999</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>2.87431129476584</v>
+        <v>11676</v>
       </c>
       <c r="G10" s="15">
         <f>IF(NOT(ISBLANK(F10)),(E10-E9)/100*F10,"")</f>
@@ -1467,7 +1467,7 @@
         <v>8.659217185779164</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>1.736042240587695</v>
+        <v>7101</v>
       </c>
       <c r="G11" s="15">
         <f>IF(NOT(ISBLANK(F11)),(E11-E10)/100*F11,"")</f>
@@ -1492,7 +1492,7 @@
         <v>9.507492791822896</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>0.04054178145087236</v>
+        <v>114</v>
       </c>
       <c r="G12" s="15">
         <f>IF(NOT(ISBLANK(F12)),(E12-E11)/100*F12,"")</f>
@@ -1517,7 +1517,7 @@
         <v>10.15053643687122</v>
       </c>
       <c r="F13" s="15" t="n">
-        <v>0.008539944903581266</v>
+        <v>18</v>
       </c>
       <c r="G13" s="15">
         <f>IF(NOT(ISBLANK(F13)),(E13-E12)/100*F13,"")</f>
@@ -1542,7 +1542,7 @@
         <v>18.12179035032359</v>
       </c>
       <c r="F14" s="15" t="n">
-        <v>0.0006887052341597796</v>
+        <v>2</v>
       </c>
       <c r="G14" s="15">
         <f>IF(NOT(ISBLANK(F14)),(E14-E13)/100*F14,"")</f>
@@ -1567,7 +1567,7 @@
         <v>20.56898194552722</v>
       </c>
       <c r="F15" s="15" t="n">
-        <v>0.0003673094582185491</v>
+        <v>0</v>
       </c>
       <c r="G15" s="15">
         <f>IF(NOT(ISBLANK(F15)),(E15-E14)/100*F15,"")</f>
@@ -1592,7 +1592,7 @@
         <v>23.19857445149794</v>
       </c>
       <c r="F16" s="15" t="n">
-        <v>0.0003673094582185491</v>
+        <v>0</v>
       </c>
       <c r="G16" s="15">
         <f>IF(NOT(ISBLANK(F16)),(E16-E15)/100*F16,"")</f>
@@ -1617,7 +1617,7 @@
         <v>25.75367214859363</v>
       </c>
       <c r="F17" s="15" t="n">
-        <v>0.0002525252525252525</v>
+        <v>0</v>
       </c>
       <c r="G17" s="15">
         <f>IF(NOT(ISBLANK(F17)),(E17-E16)/100*F17,"")</f>
@@ -1642,7 +1642,7 @@
         <v>28.63818044573139</v>
       </c>
       <c r="F18" s="15" t="n">
-        <v>0.0002525252525252525</v>
+        <v>0</v>
       </c>
       <c r="G18" s="15">
         <f>IF(NOT(ISBLANK(F18)),(E18-E17)/100*F18,"")</f>
@@ -1667,7 +1667,7 @@
         <v>32.92327600379723</v>
       </c>
       <c r="F19" s="15" t="n">
-        <v>0.0001147842056932966</v>
+        <v>0</v>
       </c>
       <c r="G19" s="15">
         <f>IF(NOT(ISBLANK(F19)),(E19-E18)/100*F19,"")</f>
